--- a/xlsx/火腿_intext.xlsx
+++ b/xlsx/火腿_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E7%87%BB</t>
   </si>
   <si>
-    <t>煙燻</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_火腿</t>
+    <t>烟燻</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_火腿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E9%85%B5</t>
@@ -41,31 +41,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E7%87%A5</t>
   </si>
   <si>
-    <t>乾燥</t>
+    <t>干燥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC</t>
   </si>
   <si>
-    <t>豬</t>
+    <t>猪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B3%AA</t>
   </si>
   <si>
-    <t>鐵質</t>
+    <t>铁质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%AE%B1</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD</t>
   </si>
   <si>
-    <t>鹽</t>
+    <t>盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%8D%8E%E7%81%AB%E8%85%BF</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E8%85%BF</t>
   </si>
   <si>
-    <t>雲腿</t>
+    <t>云腿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%82%E7%9A%8B%E7%81%AB%E8%85%BF</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9A%E4%BD%99%E6%97%A0%E7%BA%BF%E7%94%B5</t>
   </si>
   <si>
-    <t>业余无线电</t>
+    <t>业馀无线电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%B8%E8%82%89</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%85%B8</t>
   </si>
   <si>
-    <t>香腸</t>
+    <t>香肠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%88%E9%A4%90%E8%82%89</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%91%B3%E6%96%99</t>
   </si>
   <si>
-    <t>調味料</t>
+    <t>调味料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Ingredients-stub</t>
